--- a/data/trans_orig/P23_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P23_R-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>206064</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>183138</v>
+        <v>185042</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>227652</v>
+        <v>228630</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4179610590976758</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3714607571977757</v>
+        <v>0.3753221712687476</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4617488461177127</v>
+        <v>0.4637313278735237</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>178</v>
@@ -764,19 +764,19 @@
         <v>168886</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>149063</v>
+        <v>149950</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>188501</v>
+        <v>188265</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3612611630757233</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3188583353017296</v>
+        <v>0.3207555788990931</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4032202251043</v>
+        <v>0.4027145581909866</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>384</v>
@@ -785,19 +785,19 @@
         <v>374950</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>344782</v>
+        <v>345366</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>404766</v>
+        <v>405802</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3903647152873925</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3589570421760668</v>
+        <v>0.3595645658574704</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4214070526494009</v>
+        <v>0.4224860272594604</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>286958</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>265370</v>
+        <v>264392</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>309884</v>
+        <v>307980</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5820389409023241</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5382511538822873</v>
+        <v>0.5362686721264764</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6285392428022245</v>
+        <v>0.6246778287312527</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>311</v>
@@ -835,19 +835,19 @@
         <v>298603</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>278988</v>
+        <v>279224</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>318426</v>
+        <v>317539</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6387388369242767</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5967797748957004</v>
+        <v>0.5972854418090139</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6811416646982704</v>
+        <v>0.679244421100907</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>603</v>
@@ -856,19 +856,19 @@
         <v>585561</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>555745</v>
+        <v>554709</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>615729</v>
+        <v>615145</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6096352847126075</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5785929473505992</v>
+        <v>0.5775139727405396</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6410429578239332</v>
+        <v>0.6404354341425298</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>398993</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>372109</v>
+        <v>371436</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>428287</v>
+        <v>425337</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5424866605052476</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5059339920535414</v>
+        <v>0.5050194858058319</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5823153472107104</v>
+        <v>0.578305443942589</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>225</v>
@@ -981,19 +981,19 @@
         <v>233910</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>208892</v>
+        <v>210591</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>258363</v>
+        <v>259260</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3739598556230997</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.333963017514439</v>
+        <v>0.3366798853529754</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4130540273728518</v>
+        <v>0.4144879617761141</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>611</v>
@@ -1002,19 +1002,19 @@
         <v>632902</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>596461</v>
+        <v>598519</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>666601</v>
+        <v>669908</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4650334380806865</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4382580665444182</v>
+        <v>0.4397699954069373</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4897940036219676</v>
+        <v>0.4922239641985875</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>336496</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>307202</v>
+        <v>310152</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>363380</v>
+        <v>364053</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4575133394947523</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4176846527892897</v>
+        <v>0.4216945560574112</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4940660079464587</v>
+        <v>0.4949805141941682</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>366</v>
@@ -1052,19 +1052,19 @@
         <v>391584</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>367131</v>
+        <v>366234</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>416602</v>
+        <v>414903</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6260401443769003</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5869459726271483</v>
+        <v>0.585512038223886</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.666036982485561</v>
+        <v>0.6633201146470246</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>683</v>
@@ -1073,19 +1073,19 @@
         <v>728080</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>694381</v>
+        <v>691074</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>764521</v>
+        <v>762463</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5349665619193135</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5102059963780322</v>
+        <v>0.5077760358014124</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5617419334555817</v>
+        <v>0.5602300045930626</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>340973</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>315360</v>
+        <v>316562</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>368186</v>
+        <v>365462</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5338819550787669</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.493778156875008</v>
+        <v>0.4956596680186999</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.576490910505884</v>
+        <v>0.5722251460540416</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>247</v>
@@ -1198,19 +1198,19 @@
         <v>257461</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>232857</v>
+        <v>233513</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>284944</v>
+        <v>285858</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3732696920895183</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3375985193578194</v>
+        <v>0.3385497272099887</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4131152977167913</v>
+        <v>0.4144402141165207</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>574</v>
@@ -1219,19 +1219,19 @@
         <v>598434</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>563855</v>
+        <v>562420</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>636712</v>
+        <v>635409</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.450488099011661</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4244578748017544</v>
+        <v>0.423377371794607</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4793034273744674</v>
+        <v>0.4783219248280507</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>297695</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>270482</v>
+        <v>273206</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>323308</v>
+        <v>322106</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4661180449212331</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.423509089494116</v>
+        <v>0.4277748539459584</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.506221843124992</v>
+        <v>0.5043403319813003</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>411</v>
@@ -1269,19 +1269,19 @@
         <v>432283</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>404800</v>
+        <v>403886</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>456887</v>
+        <v>456231</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6267303079104818</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.586884702283209</v>
+        <v>0.5855597858834793</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6624014806421806</v>
+        <v>0.6614502727900113</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>697</v>
@@ -1290,19 +1290,19 @@
         <v>729978</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>691700</v>
+        <v>693003</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>764557</v>
+        <v>765992</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.549511900988339</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5206965726255327</v>
+        <v>0.5216780751719494</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5755421251982462</v>
+        <v>0.576622628205393</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>234735</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>211627</v>
+        <v>212245</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>258752</v>
+        <v>257993</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4521545598974858</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4076432154983303</v>
+        <v>0.4088344437357544</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4984183207397486</v>
+        <v>0.4969548361433258</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>139</v>
@@ -1415,19 +1415,19 @@
         <v>144966</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>125551</v>
+        <v>126382</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>165096</v>
+        <v>165779</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2811378192701529</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2434846685680708</v>
+        <v>0.2450961526644476</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.320175050738471</v>
+        <v>0.3215009521617848</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>358</v>
@@ -1436,19 +1436,19 @@
         <v>379701</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>348842</v>
+        <v>349103</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>410777</v>
+        <v>414328</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3669358248050139</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3371139496672527</v>
+        <v>0.337366507336279</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3969672062077522</v>
+        <v>0.4003984922046496</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>284412</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>260395</v>
+        <v>261154</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>307520</v>
+        <v>306902</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5478454401025141</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5015816792602511</v>
+        <v>0.5030451638566741</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5923567845016696</v>
+        <v>0.5911655562642455</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>363</v>
@@ -1486,19 +1486,19 @@
         <v>370676</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>350546</v>
+        <v>349863</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>390091</v>
+        <v>389260</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7188621807298471</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6798249492615293</v>
+        <v>0.6784990478382149</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7565153314319293</v>
+        <v>0.7549038473355524</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>628</v>
@@ -1507,19 +1507,19 @@
         <v>655088</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>624012</v>
+        <v>620461</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>685947</v>
+        <v>685686</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6330641751949861</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6030327937922477</v>
+        <v>0.5996015077953504</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6628860503327472</v>
+        <v>0.6626334926637208</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>128691</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>111108</v>
+        <v>109898</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>148583</v>
+        <v>146417</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3327832284817086</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2873155678714827</v>
+        <v>0.28418606528736</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3842242472927899</v>
+        <v>0.378622334904241</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>45</v>
@@ -1632,19 +1632,19 @@
         <v>46888</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>35598</v>
+        <v>35566</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>62007</v>
+        <v>61305</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1160631369556759</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08811681693704651</v>
+        <v>0.08803685436946247</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1534869213693251</v>
+        <v>0.1517493937909991</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>176</v>
@@ -1653,19 +1653,19 @@
         <v>175578</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>153479</v>
+        <v>153608</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>199756</v>
+        <v>198405</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2220556204347658</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1941056697156684</v>
+        <v>0.1942691953852876</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2526333572507206</v>
+        <v>0.2509239264118446</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>258019</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>238127</v>
+        <v>240293</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>275602</v>
+        <v>276812</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6672167715182914</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6157757527072102</v>
+        <v>0.6213776650957592</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7126844321285173</v>
+        <v>0.71581393471264</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>351</v>
@@ -1703,19 +1703,19 @@
         <v>357098</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>341979</v>
+        <v>342681</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>368388</v>
+        <v>368420</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8839368630443241</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8465130786306749</v>
+        <v>0.8482506062090011</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9118831830629536</v>
+        <v>0.9119631456305376</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>612</v>
@@ -1724,19 +1724,19 @@
         <v>615118</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>590940</v>
+        <v>592291</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>637217</v>
+        <v>637088</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7779443795652342</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7473666427492797</v>
+        <v>0.7490760735881554</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.805894330284332</v>
+        <v>0.8057308046147122</v>
       </c>
     </row>
     <row r="18">
@@ -1828,19 +1828,19 @@
         <v>53173</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>41811</v>
+        <v>41452</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>68343</v>
+        <v>65864</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1817353480539775</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1429016649683248</v>
+        <v>0.1416762043084295</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2335835356786526</v>
+        <v>0.22511289404354</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -1849,19 +1849,19 @@
         <v>6585</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2821</v>
+        <v>2819</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13449</v>
+        <v>13136</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01920174482686319</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008226978261865019</v>
+        <v>0.008220091606903174</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03921865690684395</v>
+        <v>0.03830491977775817</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>64</v>
@@ -1870,19 +1870,19 @@
         <v>59758</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>45617</v>
+        <v>47497</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>73484</v>
+        <v>76448</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09402990729271031</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07177916338659864</v>
+        <v>0.07473758949398197</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1156294495272009</v>
+        <v>0.1202928718040139</v>
       </c>
     </row>
     <row r="20">
@@ -1899,19 +1899,19 @@
         <v>239410</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>224240</v>
+        <v>226719</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>250772</v>
+        <v>251131</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8182646519460225</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7664164643213464</v>
+        <v>0.7748871059564599</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8570983350316751</v>
+        <v>0.8583237956915706</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>364</v>
@@ -1920,19 +1920,19 @@
         <v>336349</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>329485</v>
+        <v>329798</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>340113</v>
+        <v>340115</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9807982551731368</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.960781343093156</v>
+        <v>0.9616950802222418</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.991773021738135</v>
+        <v>0.9917799083930968</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>610</v>
@@ -1941,19 +1941,19 @@
         <v>575759</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>562033</v>
+        <v>559069</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>589900</v>
+        <v>588020</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9059700927072897</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8843705504727991</v>
+        <v>0.8797071281959863</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9282208366134015</v>
+        <v>0.925262410506018</v>
       </c>
     </row>
     <row r="21">
@@ -2045,19 +2045,19 @@
         <v>22654</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14728</v>
+        <v>14578</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>32358</v>
+        <v>31956</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1079340927342787</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0701719146048185</v>
+        <v>0.06945657970637879</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1541707410909642</v>
+        <v>0.1522583039857056</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -2066,19 +2066,19 @@
         <v>4635</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1117</v>
+        <v>1129</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11815</v>
+        <v>11211</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01388088907239755</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003344801964975238</v>
+        <v>0.003380638869394978</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03538406402978991</v>
+        <v>0.03357507293198449</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>27</v>
@@ -2087,19 +2087,19 @@
         <v>27288</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>17969</v>
+        <v>18739</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>39000</v>
+        <v>39712</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05018191136762866</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03304393690889092</v>
+        <v>0.03445992500413456</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07171963361184149</v>
+        <v>0.07302788837209397</v>
       </c>
     </row>
     <row r="23">
@@ -2116,19 +2116,19 @@
         <v>187229</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>177525</v>
+        <v>177927</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>195155</v>
+        <v>195305</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8920659072657213</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8458292589090364</v>
+        <v>0.8477416960142949</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.929828085395182</v>
+        <v>0.9305434202936212</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>286</v>
@@ -2137,19 +2137,19 @@
         <v>329273</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>322093</v>
+        <v>322697</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>332791</v>
+        <v>332779</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9861191109276024</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9646159359702082</v>
+        <v>0.966424927068015</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9966551980350248</v>
+        <v>0.996619361130605</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>483</v>
@@ -2158,19 +2158,19 @@
         <v>516503</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>504791</v>
+        <v>504079</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>525822</v>
+        <v>525052</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9498180886323714</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9282803663881587</v>
+        <v>0.926972111627906</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.966956063091109</v>
+        <v>0.9655400749958655</v>
       </c>
     </row>
     <row r="24">
@@ -2262,19 +2262,19 @@
         <v>1385281</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1325228</v>
+        <v>1330127</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1441345</v>
+        <v>1438554</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4229219431522778</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4045878954716592</v>
+        <v>0.4060834222805361</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.440038013342917</v>
+        <v>0.4391859405449984</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>845</v>
@@ -2283,19 +2283,19 @@
         <v>863330</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>812443</v>
+        <v>811508</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>912082</v>
+        <v>918012</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2554837841463889</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2404247837439934</v>
+        <v>0.2401481971050369</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.269910911952388</v>
+        <v>0.2716658587610183</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2194</v>
@@ -2304,19 +2304,19 @@
         <v>2248611</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2168802</v>
+        <v>2175533</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2334437</v>
+        <v>2329788</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3378983182442462</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3259054693271328</v>
+        <v>0.3269168435941037</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3507953464992103</v>
+        <v>0.3500966841717661</v>
       </c>
     </row>
     <row r="26">
@@ -2333,19 +2333,19 @@
         <v>1890220</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1834156</v>
+        <v>1836947</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1950273</v>
+        <v>1945374</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5770780568477222</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.559961986657083</v>
+        <v>0.5608140594550016</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5954121045283408</v>
+        <v>0.5939165777194639</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2452</v>
@@ -2354,19 +2354,19 @@
         <v>2515867</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2467115</v>
+        <v>2461185</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2566754</v>
+        <v>2567689</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7445162158536111</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7300890880476121</v>
+        <v>0.7283341412389818</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7595752162560068</v>
+        <v>0.7598518028949631</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4316</v>
@@ -2375,19 +2375,19 @@
         <v>4406087</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4320261</v>
+        <v>4324910</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4485896</v>
+        <v>4479165</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6621016817557539</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.64920465350079</v>
+        <v>0.649903315828234</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6740945306728673</v>
+        <v>0.6730831564058967</v>
       </c>
     </row>
     <row r="27">
@@ -2722,19 +2722,19 @@
         <v>166085</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>145387</v>
+        <v>147422</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>187111</v>
+        <v>187430</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3657094261630133</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3201326402524673</v>
+        <v>0.324613571553553</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4120061161049807</v>
+        <v>0.4127080610167939</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>143</v>
@@ -2743,19 +2743,19 @@
         <v>148172</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>129754</v>
+        <v>128960</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>167417</v>
+        <v>170589</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3452016880810676</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3022912253778144</v>
+        <v>0.3004413667977983</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3900378295847942</v>
+        <v>0.3974269158144556</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>309</v>
@@ -2764,19 +2764,19 @@
         <v>314258</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>288416</v>
+        <v>286741</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>345404</v>
+        <v>340987</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3557447286413564</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3264909029599902</v>
+        <v>0.3245958167575435</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3910022807541855</v>
+        <v>0.3860023096988347</v>
       </c>
     </row>
     <row r="5">
@@ -2793,19 +2793,19 @@
         <v>288061</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>267035</v>
+        <v>266716</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>308759</v>
+        <v>306724</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6342905738369866</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5879938838950193</v>
+        <v>0.5872919389832062</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6798673597475327</v>
+        <v>0.675386428446447</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>277</v>
@@ -2814,19 +2814,19 @@
         <v>281062</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>261817</v>
+        <v>258645</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>299480</v>
+        <v>300274</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6547983119189323</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6099621704152058</v>
+        <v>0.6025730841855446</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6977087746221856</v>
+        <v>0.6995586332022018</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>557</v>
@@ -2835,19 +2835,19 @@
         <v>569122</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>537976</v>
+        <v>542393</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>594964</v>
+        <v>596639</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6442552713586436</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6089977192458145</v>
+        <v>0.6139976903011654</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6735090970400098</v>
+        <v>0.6754041832424565</v>
       </c>
     </row>
     <row r="6">
@@ -2939,19 +2939,19 @@
         <v>349164</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>321889</v>
+        <v>325034</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>373871</v>
+        <v>378523</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5081795549836161</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4684841882804015</v>
+        <v>0.4730604713298242</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5441394316742049</v>
+        <v>0.5509104391488331</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>234</v>
@@ -2960,19 +2960,19 @@
         <v>248534</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>223692</v>
+        <v>222140</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>272996</v>
+        <v>272760</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4072618516408474</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3665550070528408</v>
+        <v>0.3640123589655853</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4473476011567349</v>
+        <v>0.4469606749481951</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>571</v>
@@ -2981,19 +2981,19 @@
         <v>597697</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>561167</v>
+        <v>565369</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>632999</v>
+        <v>637273</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4607089936309197</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4325510240757001</v>
+        <v>0.4357898833976012</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4879202432777621</v>
+        <v>0.4912142795902703</v>
       </c>
     </row>
     <row r="8">
@@ -3010,19 +3010,19 @@
         <v>337923</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>313216</v>
+        <v>308564</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>365198</v>
+        <v>362053</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4918204450163839</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4558605683257951</v>
+        <v>0.449089560851167</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5315158117195985</v>
+        <v>0.5269395286701758</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>337</v>
@@ -3031,19 +3031,19 @@
         <v>361721</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>337259</v>
+        <v>337495</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>386563</v>
+        <v>388115</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5927381483591526</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5526523988432651</v>
+        <v>0.5530393250518049</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6334449929471592</v>
+        <v>0.6359876410344146</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>667</v>
@@ -3052,19 +3052,19 @@
         <v>699645</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>664343</v>
+        <v>660069</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>736175</v>
+        <v>731973</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5392910063690803</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5120797567222382</v>
+        <v>0.5087857204097298</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5674489759243001</v>
+        <v>0.5642101166023988</v>
       </c>
     </row>
     <row r="9">
@@ -3156,19 +3156,19 @@
         <v>325330</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>298484</v>
+        <v>299520</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>350815</v>
+        <v>352460</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4778408373975073</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4384101310356748</v>
+        <v>0.4399310629201077</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5152730245692865</v>
+        <v>0.51768891241194</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>234</v>
@@ -3177,19 +3177,19 @@
         <v>248239</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>220633</v>
+        <v>221530</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>275490</v>
+        <v>273463</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3496998521457632</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3108102415182777</v>
+        <v>0.3120736786115492</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3880890159903017</v>
+        <v>0.3852334041543772</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>544</v>
@@ -3198,19 +3198,19 @@
         <v>573569</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>533431</v>
+        <v>535782</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>610133</v>
+        <v>610707</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4124328815753388</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3835711586546099</v>
+        <v>0.3852614687536524</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4387244494172665</v>
+        <v>0.4391375640040397</v>
       </c>
     </row>
     <row r="11">
@@ -3227,19 +3227,19 @@
         <v>355503</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>330018</v>
+        <v>328373</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>382349</v>
+        <v>381313</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5221591626024927</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4847269754307135</v>
+        <v>0.48231108758806</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5615898689643253</v>
+        <v>0.5600689370798922</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>432</v>
@@ -3248,19 +3248,19 @@
         <v>461625</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>434374</v>
+        <v>436401</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>489231</v>
+        <v>488334</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6503001478542367</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6119109840096981</v>
+        <v>0.6147665958456227</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6891897584817221</v>
+        <v>0.6879263213884507</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>772</v>
@@ -3269,19 +3269,19 @@
         <v>817128</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>780564</v>
+        <v>779990</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>857266</v>
+        <v>854915</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5875671184246612</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5612755505827333</v>
+        <v>0.5608624359959601</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.61642884134539</v>
+        <v>0.6147385312463475</v>
       </c>
     </row>
     <row r="12">
@@ -3373,19 +3373,19 @@
         <v>279782</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>253026</v>
+        <v>254348</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>303313</v>
+        <v>306555</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4552143150156758</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4116814242001251</v>
+        <v>0.413832266113697</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4934984737636794</v>
+        <v>0.4987735661919009</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>207</v>
@@ -3394,19 +3394,19 @@
         <v>240465</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>212812</v>
+        <v>215960</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>265292</v>
+        <v>266582</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3902386021426706</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.345363131440371</v>
+        <v>0.3504712378578716</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4305299190103172</v>
+        <v>0.432623142734376</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>454</v>
@@ -3415,19 +3415,19 @@
         <v>520247</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>482757</v>
+        <v>476223</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>557921</v>
+        <v>554637</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.422684689970482</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3922254418706106</v>
+        <v>0.386916508662268</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4532938409444429</v>
+        <v>0.4506255412398997</v>
       </c>
     </row>
     <row r="14">
@@ -3444,19 +3444,19 @@
         <v>334835</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>311304</v>
+        <v>308062</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>361591</v>
+        <v>360269</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5447856849843242</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5065015262363205</v>
+        <v>0.5012264338080989</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5883185757998748</v>
+        <v>0.5861677338863029</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>332</v>
@@ -3465,19 +3465,19 @@
         <v>375734</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>350907</v>
+        <v>349617</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>403387</v>
+        <v>400239</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6097613978573294</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5694700809896829</v>
+        <v>0.5673768572656237</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.654636868559629</v>
+        <v>0.6495287621421282</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>633</v>
@@ -3486,19 +3486,19 @@
         <v>710569</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>672895</v>
+        <v>676179</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>748059</v>
+        <v>754593</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.577315310029518</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5467061590555573</v>
+        <v>0.5493744587601003</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6077745581293894</v>
+        <v>0.6130834913377321</v>
       </c>
     </row>
     <row r="15">
@@ -3590,19 +3590,19 @@
         <v>156369</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>135474</v>
+        <v>136256</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>179129</v>
+        <v>177173</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3641331759640614</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3154737514133821</v>
+        <v>0.3172959651736128</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4171336380688994</v>
+        <v>0.4125778094555264</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>60</v>
@@ -3611,19 +3611,19 @@
         <v>67829</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>53182</v>
+        <v>53315</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>84449</v>
+        <v>85307</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.151471016440494</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1187622033326856</v>
+        <v>0.1190609047425338</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1885875004664952</v>
+        <v>0.1905017442507942</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>202</v>
@@ -3632,19 +3632,19 @@
         <v>224198</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>197472</v>
+        <v>197688</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>251455</v>
+        <v>253667</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2555753220050343</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2251093756637814</v>
+        <v>0.2253555779041977</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2866466295180562</v>
+        <v>0.2891683242246608</v>
       </c>
     </row>
     <row r="17">
@@ -3661,19 +3661,19 @@
         <v>273060</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>250300</v>
+        <v>252256</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>293955</v>
+        <v>293173</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6358668240359386</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5828663619311005</v>
+        <v>0.5874221905444735</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6845262485866179</v>
+        <v>0.682704034826387</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>346</v>
@@ -3682,19 +3682,19 @@
         <v>379971</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>363351</v>
+        <v>362493</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>394618</v>
+        <v>394485</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.848528983559506</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8114124995335045</v>
+        <v>0.8094982557492056</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8812377966673144</v>
+        <v>0.8809390952574659</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>597</v>
@@ -3703,19 +3703,19 @@
         <v>653031</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>625774</v>
+        <v>623562</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>679757</v>
+        <v>679541</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7444246779949657</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7133533704819437</v>
+        <v>0.7108316757753392</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7748906243362186</v>
+        <v>0.7746444220958023</v>
       </c>
     </row>
     <row r="18">
@@ -3807,19 +3807,19 @@
         <v>51254</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>38868</v>
+        <v>38541</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>66556</v>
+        <v>66479</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1654503760645597</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1254665239338129</v>
+        <v>0.1244115613545905</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.214846028158904</v>
+        <v>0.2145981409350713</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>17</v>
@@ -3828,19 +3828,19 @@
         <v>19003</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11467</v>
+        <v>11356</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29256</v>
+        <v>30601</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05368066104293117</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03239307897037795</v>
+        <v>0.03207999382133678</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08264552504366134</v>
+        <v>0.08644471539183507</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>61</v>
@@ -3849,19 +3849,19 @@
         <v>70257</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>55930</v>
+        <v>55994</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>90548</v>
+        <v>89249</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1058434250290842</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08426000334113505</v>
+        <v>0.08435661430810323</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.136412383460866</v>
+        <v>0.1344549727726227</v>
       </c>
     </row>
     <row r="20">
@@ -3878,19 +3878,19 @@
         <v>258532</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>243230</v>
+        <v>243307</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>270918</v>
+        <v>271245</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8345496239354403</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7851539718410959</v>
+        <v>0.7854018590649287</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8745334760661871</v>
+        <v>0.8755884386454095</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>327</v>
@@ -3899,19 +3899,19 @@
         <v>334993</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>324740</v>
+        <v>323395</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>342529</v>
+        <v>342640</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9463193389570689</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9173544749563387</v>
+        <v>0.9135552846081644</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9676069210296221</v>
+        <v>0.9679200061786631</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>565</v>
@@ -3920,19 +3920,19 @@
         <v>593525</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>573234</v>
+        <v>574533</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>607852</v>
+        <v>607788</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8941565749709158</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8635876165391336</v>
+        <v>0.8655450272273774</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.915739996658865</v>
+        <v>0.9156433856918967</v>
       </c>
     </row>
     <row r="21">
@@ -4024,19 +4024,19 @@
         <v>27052</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>18173</v>
+        <v>18278</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>39565</v>
+        <v>38607</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1082708349565958</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07273543183162735</v>
+        <v>0.07315387930884001</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1583558018006143</v>
+        <v>0.154519201359458</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -4048,16 +4048,16 @@
         <v>1006</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11696</v>
+        <v>11906</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01035683485477804</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002587251847225311</v>
+        <v>0.002587159501108674</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03006945884964777</v>
+        <v>0.03060794035435366</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>27</v>
@@ -4066,19 +4066,19 @@
         <v>31080</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>20414</v>
+        <v>20546</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>44879</v>
+        <v>45497</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04865168981201684</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03195474004908806</v>
+        <v>0.03216190997665301</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07025213275813293</v>
+        <v>0.07121986872580646</v>
       </c>
     </row>
     <row r="23">
@@ -4095,19 +4095,19 @@
         <v>222799</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>210286</v>
+        <v>211244</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>231678</v>
+        <v>231573</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8917291650434042</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8416441981993856</v>
+        <v>0.8454807986405419</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9272645681683725</v>
+        <v>0.92684612069116</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>347</v>
@@ -4116,7 +4116,7 @@
         <v>384950</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>377283</v>
+        <v>377073</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>387973</v>
@@ -4125,10 +4125,10 @@
         <v>0.989643165145222</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9699305411503519</v>
+        <v>0.9693920596456463</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9974127481527747</v>
+        <v>0.9974128404988913</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>545</v>
@@ -4137,19 +4137,19 @@
         <v>607750</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>593951</v>
+        <v>593333</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>618416</v>
+        <v>618284</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9513483101879832</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9297478672418676</v>
+        <v>0.9287801312741932</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.968045259950912</v>
+        <v>0.9678380900233469</v>
       </c>
     </row>
     <row r="24">
@@ -4241,19 +4241,19 @@
         <v>1355036</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1297341</v>
+        <v>1298671</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1418034</v>
+        <v>1419852</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3955445672003022</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3787028203037276</v>
+        <v>0.3790909986768302</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.413933929762612</v>
+        <v>0.4144648272170601</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>898</v>
@@ -4262,19 +4262,19 @@
         <v>976270</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>921895</v>
+        <v>922351</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1035444</v>
+        <v>1033349</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2745163570971233</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2592265882613503</v>
+        <v>0.2593548981087217</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2911553132794867</v>
+        <v>0.2905662617000394</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2168</v>
@@ -4283,19 +4283,19 @@
         <v>2331306</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2254274</v>
+        <v>2252800</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2417674</v>
+        <v>2420969</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3338987358651462</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.322865883583975</v>
+        <v>0.322654753155259</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3462686481416593</v>
+        <v>0.3467405516425792</v>
       </c>
     </row>
     <row r="26">
@@ -4312,19 +4312,19 @@
         <v>2070713</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2007715</v>
+        <v>2005897</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2128408</v>
+        <v>2127078</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6044554327996978</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.586066070237388</v>
+        <v>0.5855351727829402</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6212971796962724</v>
+        <v>0.62090900132317</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2398</v>
@@ -4333,19 +4333,19 @@
         <v>2580057</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2520883</v>
+        <v>2522978</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2634432</v>
+        <v>2633976</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7254836429028767</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7088446867205133</v>
+        <v>0.7094337382999606</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7407734117386497</v>
+        <v>0.740645101891278</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4336</v>
@@ -4354,19 +4354,19 @@
         <v>4650770</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4564402</v>
+        <v>4561107</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4727802</v>
+        <v>4729276</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6661012641348538</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6537313518583407</v>
+        <v>0.6532594483574208</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6771341164160251</v>
+        <v>0.6773452468447411</v>
       </c>
     </row>
     <row r="27">
@@ -4701,19 +4701,19 @@
         <v>145554</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>126482</v>
+        <v>124964</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>165610</v>
+        <v>166684</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3469998331524121</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3015336254046824</v>
+        <v>0.2979148443043298</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.394814450199067</v>
+        <v>0.3973747772170497</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>108</v>
@@ -4722,19 +4722,19 @@
         <v>106400</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>88885</v>
+        <v>90240</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>124036</v>
+        <v>122904</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2688521119893029</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2245961714302667</v>
+        <v>0.2280191197047726</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.313417121353135</v>
+        <v>0.3105552711677053</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>244</v>
@@ -4743,19 +4743,19 @@
         <v>251953</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>225993</v>
+        <v>222850</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>278919</v>
+        <v>279714</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3090623102266272</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2772175654276987</v>
+        <v>0.2733629790240663</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3421405367103355</v>
+        <v>0.3431154249723267</v>
       </c>
     </row>
     <row r="5">
@@ -4772,19 +4772,19 @@
         <v>273909</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>253853</v>
+        <v>252779</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>292981</v>
+        <v>294499</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.653000166847588</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6051855498009331</v>
+        <v>0.6026252227829505</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6984663745953176</v>
+        <v>0.7020851556956704</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>296</v>
@@ -4793,19 +4793,19 @@
         <v>289355</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>271719</v>
+        <v>272851</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>306870</v>
+        <v>305515</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7311478880106971</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.686582878646865</v>
+        <v>0.6894447288322952</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7754038285697333</v>
+        <v>0.7719808802952274</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>553</v>
@@ -4814,19 +4814,19 @@
         <v>563265</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>536299</v>
+        <v>535504</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>589225</v>
+        <v>592368</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6909376897733728</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6578594632896645</v>
+        <v>0.6568845750276733</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7227824345723014</v>
+        <v>0.7266370209759339</v>
       </c>
     </row>
     <row r="6">
@@ -4918,19 +4918,19 @@
         <v>269701</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>245860</v>
+        <v>242380</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>298119</v>
+        <v>293822</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4567357371880223</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4163618239706458</v>
+        <v>0.4104686880072012</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5048621557788316</v>
+        <v>0.4975847038107917</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>220</v>
@@ -4939,19 +4939,19 @@
         <v>214575</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>192663</v>
+        <v>193800</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>237996</v>
+        <v>238290</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3807606653787624</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3418778765312578</v>
+        <v>0.3438954829448763</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.42231934488408</v>
+        <v>0.4228425164534448</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>477</v>
@@ -4960,19 +4960,19 @@
         <v>484276</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>450041</v>
+        <v>448696</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>519528</v>
+        <v>515142</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4196353993740081</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.389969694221912</v>
+        <v>0.3888048042605752</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4501819675896017</v>
+        <v>0.4463809824253459</v>
       </c>
     </row>
     <row r="8">
@@ -4989,19 +4989,19 @@
         <v>320795</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>292377</v>
+        <v>296674</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>344636</v>
+        <v>348116</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5432642628119777</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4951378442211683</v>
+        <v>0.5024152961892078</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5836381760293542</v>
+        <v>0.5895313119927988</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>359</v>
@@ -5010,19 +5010,19 @@
         <v>348969</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>325548</v>
+        <v>325254</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>370881</v>
+        <v>369744</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6192393346212377</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5776806551159199</v>
+        <v>0.5771574835465548</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6581221234687421</v>
+        <v>0.6561045170551232</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>669</v>
@@ -5031,19 +5031,19 @@
         <v>669764</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>634512</v>
+        <v>638898</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>703999</v>
+        <v>705344</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5803646006259918</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5498180324103983</v>
+        <v>0.5536190175746541</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.610030305778088</v>
+        <v>0.6111951957394248</v>
       </c>
     </row>
     <row r="9">
@@ -5135,19 +5135,19 @@
         <v>266994</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>241668</v>
+        <v>241313</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>292413</v>
+        <v>294443</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3996769404871005</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3617654689579791</v>
+        <v>0.3612332689670495</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4377272485135926</v>
+        <v>0.4407657780155516</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>225</v>
@@ -5156,19 +5156,19 @@
         <v>220544</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>196608</v>
+        <v>199578</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>245941</v>
+        <v>245243</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3339250966880152</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2976843842844498</v>
+        <v>0.3021809335445248</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3723796577164915</v>
+        <v>0.3713214244282616</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>478</v>
@@ -5177,19 +5177,19 @@
         <v>487538</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>452167</v>
+        <v>453374</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>523552</v>
+        <v>520334</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3669882576705226</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3403633554694002</v>
+        <v>0.3412722214273796</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3940979996829793</v>
+        <v>0.3916753982904724</v>
       </c>
     </row>
     <row r="11">
@@ -5206,19 +5206,19 @@
         <v>401031</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>375612</v>
+        <v>373582</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>426357</v>
+        <v>426712</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6003230595128995</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5622727514864074</v>
+        <v>0.5592342219844485</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6382345310420214</v>
+        <v>0.6387667310329506</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>439</v>
@@ -5227,19 +5227,19 @@
         <v>439915</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>414518</v>
+        <v>415216</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>463851</v>
+        <v>460881</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6660749033119847</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6276203422835084</v>
+        <v>0.6286785755717386</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7023156157155501</v>
+        <v>0.6978190664554755</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>823</v>
@@ -5248,19 +5248,19 @@
         <v>840945</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>804931</v>
+        <v>808149</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>876316</v>
+        <v>875109</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6330117423294774</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6059020003170207</v>
+        <v>0.6083246017095275</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6596366445305999</v>
+        <v>0.6587277785726204</v>
       </c>
     </row>
     <row r="12">
@@ -5352,19 +5352,19 @@
         <v>277798</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>252351</v>
+        <v>252501</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>307070</v>
+        <v>304717</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4299958890964127</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3906066803548922</v>
+        <v>0.3908393897911941</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4753060125468226</v>
+        <v>0.4716628990548051</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>211</v>
@@ -5373,19 +5373,19 @@
         <v>230829</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>206527</v>
+        <v>207093</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>258328</v>
+        <v>255635</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3567894745033369</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3192257650000268</v>
+        <v>0.3201017051305837</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3992950695335936</v>
+        <v>0.3951312691957163</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>457</v>
@@ -5394,19 +5394,19 @@
         <v>508627</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>472062</v>
+        <v>472218</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>543585</v>
+        <v>545082</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3933668561170007</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3650876948877068</v>
+        <v>0.3652085419931137</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4204031089668305</v>
+        <v>0.4215612481851761</v>
       </c>
     </row>
     <row r="14">
@@ -5423,19 +5423,19 @@
         <v>368250</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>338978</v>
+        <v>341331</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>393697</v>
+        <v>393547</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5700041109035873</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5246939874531773</v>
+        <v>0.5283371009451949</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6093933196451079</v>
+        <v>0.609160610208806</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>389</v>
@@ -5444,19 +5444,19 @@
         <v>416132</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>388633</v>
+        <v>391326</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>440434</v>
+        <v>439868</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.643210525496663</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6007049304664065</v>
+        <v>0.6048687308042837</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6807742349999732</v>
+        <v>0.6798982948694166</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>725</v>
@@ -5465,19 +5465,19 @@
         <v>784382</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>749424</v>
+        <v>747927</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>820947</v>
+        <v>820791</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6066331438829993</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5795968910331696</v>
+        <v>0.5784387518148238</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6349123051122931</v>
+        <v>0.6347914580068863</v>
       </c>
     </row>
     <row r="15">
@@ -5569,19 +5569,19 @@
         <v>146836</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>127050</v>
+        <v>124713</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>168431</v>
+        <v>170064</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3072415637655997</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2658408175876059</v>
+        <v>0.2609505881001148</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3524269872639174</v>
+        <v>0.355844388328128</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>98</v>
@@ -5590,19 +5590,19 @@
         <v>114087</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>95809</v>
+        <v>95820</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>136324</v>
+        <v>135693</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2301353676725043</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1932650249942492</v>
+        <v>0.1932869916465923</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2749902618076372</v>
+        <v>0.2737190158316259</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>228</v>
@@ -5611,19 +5611,19 @@
         <v>260924</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>231797</v>
+        <v>230477</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>291111</v>
+        <v>289555</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2679827850738919</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2380681211048016</v>
+        <v>0.2367125885262868</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2989868450033152</v>
+        <v>0.2973887360940768</v>
       </c>
     </row>
     <row r="17">
@@ -5640,19 +5640,19 @@
         <v>331082</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>309487</v>
+        <v>307854</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>350868</v>
+        <v>353205</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6927584362344003</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6475730127360827</v>
+        <v>0.6441556116718721</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7341591824123941</v>
+        <v>0.7390494118998853</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>334</v>
@@ -5661,19 +5661,19 @@
         <v>381653</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>359416</v>
+        <v>360047</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>399931</v>
+        <v>399920</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7698646323274957</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7250097381923627</v>
+        <v>0.7262809841683741</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8067349750057509</v>
+        <v>0.8067130083534078</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>628</v>
@@ -5682,19 +5682,19 @@
         <v>712734</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>682547</v>
+        <v>684103</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>741861</v>
+        <v>743181</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7320172149261081</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7010131549966848</v>
+        <v>0.7026112639059243</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7619318788951985</v>
+        <v>0.7632874114737133</v>
       </c>
     </row>
     <row r="18">
@@ -5786,19 +5786,19 @@
         <v>58232</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>45278</v>
+        <v>44203</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>74469</v>
+        <v>72489</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.174174624380989</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1354294482394501</v>
+        <v>0.1322135683388226</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2227403578392493</v>
+        <v>0.2168187409524639</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27</v>
@@ -5807,19 +5807,19 @@
         <v>30027</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19834</v>
+        <v>20819</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>41135</v>
+        <v>41477</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07948779315764165</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0525032064539378</v>
+        <v>0.05511237481119341</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1088906304326942</v>
+        <v>0.1097977243392328</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>82</v>
@@ -5828,19 +5828,19 @@
         <v>88259</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>71047</v>
+        <v>72358</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>109837</v>
+        <v>110091</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1239436333008929</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09977244008371768</v>
+        <v>0.1016137908973508</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1542455892223623</v>
+        <v>0.1546018971738073</v>
       </c>
     </row>
     <row r="20">
@@ -5857,19 +5857,19 @@
         <v>276098</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>259861</v>
+        <v>261841</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>289052</v>
+        <v>290127</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.825825375619011</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7772596421607502</v>
+        <v>0.7831812590475362</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8645705517605499</v>
+        <v>0.8677864316611774</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>327</v>
@@ -5878,19 +5878,19 @@
         <v>347735</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>336627</v>
+        <v>336285</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>357928</v>
+        <v>356943</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9205122068423583</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8911093695673058</v>
+        <v>0.890202275660767</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9474967935460622</v>
+        <v>0.9448876251888065</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>597</v>
@@ -5899,19 +5899,19 @@
         <v>623833</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>602255</v>
+        <v>602001</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>641045</v>
+        <v>639734</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8760563666991071</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8457544107776376</v>
+        <v>0.8453981028261927</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9002275599162822</v>
+        <v>0.8983862091026488</v>
       </c>
     </row>
     <row r="21">
@@ -6003,19 +6003,19 @@
         <v>24619</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17258</v>
+        <v>17320</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>34830</v>
+        <v>34166</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0961166490482165</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06737890027626076</v>
+        <v>0.0676216775226996</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1359844925486793</v>
+        <v>0.1333913772290288</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -6024,19 +6024,19 @@
         <v>8014</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2785</v>
+        <v>2724</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16383</v>
+        <v>17157</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02009101515870271</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.006981452614287753</v>
+        <v>0.006829916129236302</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04107199059110073</v>
+        <v>0.04301202270955962</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>36</v>
@@ -6045,19 +6045,19 @@
         <v>32633</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>23360</v>
+        <v>23141</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>44644</v>
+        <v>44968</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04981956044089957</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03566248096009179</v>
+        <v>0.03532935495495962</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06815720413617349</v>
+        <v>0.06865238550928815</v>
       </c>
     </row>
     <row r="23">
@@ -6074,19 +6074,19 @@
         <v>231514</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>221303</v>
+        <v>221967</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>238875</v>
+        <v>238813</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9038833509517835</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8640155074513207</v>
+        <v>0.8666086227709709</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9326210997237393</v>
+        <v>0.9323783224773002</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>294</v>
@@ -6095,19 +6095,19 @@
         <v>390870</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>382501</v>
+        <v>381727</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>396099</v>
+        <v>396160</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9799089848412973</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9589280094088992</v>
+        <v>0.9569879772904403</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9930185473857122</v>
+        <v>0.9931700838707637</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>565</v>
@@ -6116,19 +6116,19 @@
         <v>622384</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>610373</v>
+        <v>610049</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>631657</v>
+        <v>631876</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9501804395591005</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9318427958638265</v>
+        <v>0.9313476144907112</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9643375190399077</v>
+        <v>0.9646706450450402</v>
       </c>
     </row>
     <row r="24">
@@ -6220,19 +6220,19 @@
         <v>1189733</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1132708</v>
+        <v>1131547</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1245818</v>
+        <v>1245998</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3507040825745484</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3338943618818603</v>
+        <v>0.3335521400303301</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3672363941641641</v>
+        <v>0.3672893609873641</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>895</v>
@@ -6241,19 +6241,19 @@
         <v>924476</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>871722</v>
+        <v>869142</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>978327</v>
+        <v>981830</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2612175840442336</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2463114498739905</v>
+        <v>0.2455825342713981</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.276433537667205</v>
+        <v>0.2774233471219599</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2002</v>
@@ -6262,19 +6262,19 @@
         <v>2114209</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2028994</v>
+        <v>2039546</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2192295</v>
+        <v>2196204</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3050139446573804</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2927199913113854</v>
+        <v>0.294242305251616</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3162793045443187</v>
+        <v>0.3168432232446354</v>
       </c>
     </row>
     <row r="26">
@@ -6291,19 +6291,19 @@
         <v>2202681</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2146596</v>
+        <v>2146416</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2259706</v>
+        <v>2260867</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6492959174254516</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.632763605835836</v>
+        <v>0.632710639012636</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6661056381181397</v>
+        <v>0.6664478599696702</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2438</v>
@@ -6312,19 +6312,19 @@
         <v>2614627</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2560776</v>
+        <v>2557273</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2667381</v>
+        <v>2669961</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7387824159557664</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.723566462332795</v>
+        <v>0.7225766528780402</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7536885501260094</v>
+        <v>0.7544174657286018</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4560</v>
@@ -6333,19 +6333,19 @@
         <v>4817308</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4739222</v>
+        <v>4735313</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4902523</v>
+        <v>4891971</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6949860553426196</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6837206954556813</v>
+        <v>0.683156776755365</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7072800086886146</v>
+        <v>0.705757694748384</v>
       </c>
     </row>
     <row r="27">
